--- a/result/6月/表7-近五年上海重点产品进口金额及增长情况 （亿元，%）.xlsx
+++ b/result/6月/表7-近五年上海重点产品进口金额及增长情况 （亿元，%）.xlsx
@@ -1,104 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YQ-SASS\上海海关数据更新\result\6月\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C85DC03-21F8-4B68-90DC-DA3C70B6F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="9408" yWindow="456" windowWidth="11076" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>上海同比</t>
-  </si>
-  <si>
-    <t>上海进出口该商品金额</t>
-  </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>乘用车</t>
-  </si>
-  <si>
-    <t>农产品</t>
-  </si>
-  <si>
-    <t>机电产品</t>
-  </si>
-  <si>
-    <t>生命科学技术</t>
-  </si>
-  <si>
-    <t>美容化妆品及洗护用品</t>
-  </si>
-  <si>
-    <t>金属矿及矿砂</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>食品</t>
-  </si>
-  <si>
-    <t>高新技术产品</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -107,50 +46,121 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -438,421 +448,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>上海同比</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>上海进出口该商品金额</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="1" t="n">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>乘用车</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>-4.22</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-1.77</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-4.42</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>7.49</v>
       </c>
-      <c r="G4" s="3">
-        <v>-35.380000000000003</v>
-      </c>
-      <c r="I4">
+      <c r="G4" t="n">
+        <v>-35.38</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
         <v>758.38</v>
       </c>
-      <c r="J4">
-        <v>744.93</v>
-      </c>
-      <c r="K4">
+      <c r="J4" t="n">
+        <v>744.9299999999999</v>
+      </c>
+      <c r="K4" t="n">
         <v>712.03</v>
       </c>
-      <c r="L4">
-        <v>765.32</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="L4" t="n">
+        <v>765.3200000000001</v>
+      </c>
+      <c r="M4" t="n">
         <v>263.24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>农产品</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>11.78</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>13.27</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>12.13</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>6.85</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" t="n">
         <v>-12.02</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>1598.72</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>1810.91</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>2031.61</v>
       </c>
-      <c r="K5">
-        <v>2096.7399999999998</v>
-      </c>
-      <c r="L5">
+      <c r="K5" t="n">
+        <v>2096.74</v>
+      </c>
+      <c r="L5" t="n">
         <v>2238.08</v>
       </c>
-      <c r="M5" s="3">
-        <v>976.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="M5" t="n">
+        <v>976.1900000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>机电产品</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1.74</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>7.67</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>7.31</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>-2.79</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>-3.96</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" t="n">
         <v>0.38</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>9705.41</v>
       </c>
-      <c r="I6">
-        <v>10457.049999999999</v>
-      </c>
-      <c r="J6">
+      <c r="I6" t="n">
+        <v>10457.05</v>
+      </c>
+      <c r="J6" t="n">
         <v>11210.37</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>10895.84</v>
       </c>
-      <c r="L6">
-        <v>10456.200000000001</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="L6" t="n">
+        <v>10456.2</v>
+      </c>
+      <c r="M6" t="n">
         <v>5105.88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>生命科学技术</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>22.24</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>-2.74</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>6.63</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>7.9</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>10.58</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" t="n">
         <v>-9.48</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>1174.43</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>1142.29</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1217.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>1316.29</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>1455.66</v>
       </c>
-      <c r="M7" s="3">
-        <v>687.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="M7" t="n">
+        <v>687.1900000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>美容化妆品及洗护用品</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>17.91</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>12.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>-11.84</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>-5.46</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" t="n">
         <v>-0.44</v>
       </c>
-      <c r="I8">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>526.26</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>591.24</v>
       </c>
-      <c r="K8">
-        <v>521.20000000000005</v>
-      </c>
-      <c r="L8">
+      <c r="K8" t="n">
+        <v>521.2</v>
+      </c>
+      <c r="L8" t="n">
         <v>486.24</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" t="n">
         <v>231.26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>-8.2799999999999994</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>金属矿及矿砂</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="D9" t="n">
         <v>57.67</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>-12.47</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>6.66</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" t="n">
         <v>16.53</v>
       </c>
-      <c r="I9">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>1081.28</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>1784.93</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>1559.95</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>1667.92</v>
       </c>
-      <c r="M9" s="3">
-        <v>991.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="M9" t="n">
+        <v>991.3099999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>集成电路</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>14.68</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>13.18</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>2.56</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>2.68</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>-13.02</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" t="n">
         <v>-0.19</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>2626.38</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>2972.09</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>3048.24</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>3129.86</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>2725.37</v>
       </c>
-      <c r="M10" s="3">
-        <v>1300.5899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+      <c r="M10" t="n">
+        <v>1300.59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-17.55</v>
       </c>
-      <c r="E11">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>2.71</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>6.86</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" t="n">
         <v>-12.84</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>5.82</v>
       </c>
-      <c r="K11">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>1964.55</v>
       </c>
-      <c r="L11">
-        <v>2096.7600000000002</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="L11" t="n">
+        <v>2096.76</v>
+      </c>
+      <c r="M11" t="n">
         <v>908.05</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>高新技术产品</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>8.49</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>9.83</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>7.32</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.15</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>-4.08</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" t="n">
         <v>5.72</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>6315.68</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>6936.15</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>7434.12</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>7446.64</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>7129.88</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" t="n">
         <v>3653.23</v>
       </c>
     </row>
@@ -861,7 +906,6 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>